--- a/Data/Processed/Angiosperms/missing_powo_ipni/Phytolaccaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Phytolaccaceae.xlsx
@@ -872,7 +872,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pesquisas, Bot., Bras. 48: 30 (1998), as 'papilosa'. </t>
+          <t>Pesquisas, Bot., Bras. 48: 30 (1998), as 'papilosa'.</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Observ. Bot.-Med. Nonnullis Bras. Pl. 1: 13. 1803 </t>
+          <t>Observ. Bot.-Med. Nonnullis Bras. Pl. 1: 13. 1803</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 83: 92. 1909 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 83: 92. 1909</t>
         </is>
       </c>
       <c r="J16" t="b">
